--- a/doc/UAV-调研.xlsx
+++ b/doc/UAV-调研.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MBZIRC2020资料\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC33A659-5F7C-40AE-AA14-08F72C4A9B15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="嵌入式设备调研" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="154">
   <si>
     <t>UAV机载PC调研</t>
   </si>
@@ -427,9 +433,6 @@
 二轴</t>
   </si>
   <si>
-    <t>6.8w</t>
-  </si>
-  <si>
     <t>92×122</t>
   </si>
   <si>
@@ -462,50 +465,132 @@
     <t>30ms</t>
   </si>
   <si>
-    <t>品灵 Q10F</t>
-  </si>
-  <si>
     <t>品灵 Q30T</t>
   </si>
   <si>
+    <t>1080p30</t>
+  </si>
+  <si>
+    <t>HDMI</t>
+  </si>
+  <si>
+    <t>主板性能测试</t>
+  </si>
+  <si>
+    <t>相机调研</t>
+  </si>
+  <si>
+    <t>稳定性分析</t>
+  </si>
+  <si>
+    <t>位姿解算程序</t>
+  </si>
+  <si>
+    <t>相机标定</t>
+  </si>
+  <si>
+    <t>位姿稳定性分析</t>
+  </si>
+  <si>
+    <t>通视光电</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OES-LW550</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOES-LW650</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOES-LW800</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOES-130C</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>可见
+红外
+激光</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>550g</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>125×100×100</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12V 20/40W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920×1080
+640×480</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q10F</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">品灵 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>3w</t>
-  </si>
-  <si>
-    <t>1080p30</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000
+5000（跟踪）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>30ms</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HDMI</t>
-  </si>
-  <si>
-    <t>主板性能测试</t>
-  </si>
-  <si>
-    <t>相机调研</t>
-  </si>
-  <si>
-    <t>稳定性分析</t>
-  </si>
-  <si>
-    <t>位姿解算程序</t>
-  </si>
-  <si>
-    <t>相机标定</t>
-  </si>
-  <si>
-    <t>位姿稳定性分析</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB 
+深度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.8w</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,146 +639,24 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,194 +669,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="33">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1218,254 +995,65 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1478,12 +1066,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1499,10 +1081,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1523,9 +1105,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1547,12 +1126,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1569,9 +1142,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1589,21 +1159,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1615,6 +1173,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1622,78 +1231,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1709,13 +1314,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1753,13 +1364,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1797,13 +1414,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1841,13 +1464,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1874,29 +1503,35 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>32385</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>27940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>684068</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>334645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1915,26 +1550,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>49530</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>31115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>659130</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>329565</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1943,6 +1584,94 @@
         <a:xfrm>
           <a:off x="1878330" y="945515"/>
           <a:ext cx="609600" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>26669</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>643890</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>529590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CFA539B-E472-4051-82E2-8B2DAFF8AC51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2998469" y="4034790"/>
+          <a:ext cx="617221" cy="483870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>596347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BEC0DD-B63E-48D8-A61A-1459DDD2C3C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2973457" y="3097697"/>
+          <a:ext cx="687456" cy="596346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2206,22 +1935,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:N23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="17.875" style="40" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="40" customWidth="1"/>
+    <col min="2" max="3" width="17.875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="34" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
     <col min="6" max="6" width="10.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="3" customWidth="1"/>
@@ -2234,557 +1963,554 @@
     <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15"/>
-    <row r="2" ht="15" spans="2:14">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="52"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" s="24" customFormat="1" ht="15.75" spans="2:13">
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="2:14" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="54.75" customHeight="1" spans="2:14">
-      <c r="B4" s="45" t="s">
+    <row r="4" spans="2:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="9">
+      <c r="C4" s="67"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="7">
         <v>4250</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="18" t="s">
         <v>19</v>
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" ht="66" customHeight="1" spans="2:14">
-      <c r="B5" s="45" t="s">
+    <row r="5" spans="2:14" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="9">
+      <c r="C5" s="67"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="7">
         <v>11050</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" ht="61.5" customHeight="1" spans="2:14">
-      <c r="B6" s="47" t="s">
+    <row r="6" spans="2:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="9">
+      <c r="D6" s="39"/>
+      <c r="E6" s="7">
         <v>2899</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="21" t="s">
+      <c r="L6" s="68"/>
+      <c r="M6" s="18" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" ht="15.75" spans="2:14">
-      <c r="B7" s="47" t="s">
+    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="18" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="60"/>
+      <c r="C8" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="9">
+      <c r="D8" s="39"/>
+      <c r="E8" s="7">
         <v>4500</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="18" t="s">
         <v>17</v>
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48" t="s">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="60"/>
+      <c r="C9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="9">
+      <c r="D9" s="39"/>
+      <c r="E9" s="7">
         <v>2500</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="18" t="s">
         <v>17</v>
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="47"/>
-      <c r="C10" s="48" t="s">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="60"/>
+      <c r="C10" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="9">
+      <c r="D10" s="39"/>
+      <c r="E10" s="7">
         <v>8400</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="18" t="s">
         <v>17</v>
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" ht="43.5" spans="2:14">
-      <c r="B11" s="50" t="s">
+    <row r="11" spans="2:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="17">
+      <c r="C11" s="58"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="15">
         <v>9016</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="23" t="s">
+      <c r="L11" s="59"/>
+      <c r="M11" s="20" t="s">
         <v>33</v>
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="22" spans="9:10">
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-    </row>
-    <row r="23" ht="15.75" spans="9:10">
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+    </row>
+    <row r="23" spans="9:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="B7:B10"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="B7:B10"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:M6"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="26"/>
-    <col min="2" max="2" width="12.375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="26" customWidth="1"/>
-    <col min="4" max="4" width="9" style="26" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="26" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="26" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="26" customWidth="1"/>
-    <col min="9" max="9" width="18.375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="25" customWidth="1"/>
-    <col min="11" max="11" width="9.75" style="26" customWidth="1"/>
-    <col min="12" max="12" width="11.125" style="26" customWidth="1"/>
-    <col min="13" max="13" width="12.125" style="26" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="26"/>
+    <col min="1" max="1" width="9" style="23"/>
+    <col min="2" max="2" width="12.375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9" style="23" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="23" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="22" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="23" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="23" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5"/>
-    <row r="2" ht="16.5" spans="2:13">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="35"/>
-    </row>
-    <row r="3" s="24" customFormat="1" spans="2:13">
-      <c r="B3" s="29" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
+    </row>
+    <row r="3" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" s="25" customFormat="1" spans="2:13">
-      <c r="B4" s="31" t="s">
+    <row r="4" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="27">
         <v>4500</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" s="25" customFormat="1" spans="2:13">
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="27">
         <v>2500</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" s="25" customFormat="1" ht="48" spans="2:13">
-      <c r="B6" s="33" t="s">
+    <row r="6" spans="2:13" s="22" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="29">
         <v>8400</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="33" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2792,411 +2518,540 @@
   <mergeCells count="1">
     <mergeCell ref="B2:M2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:M12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="15" style="3" customWidth="1"/>
-    <col min="3" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="11.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="16.25" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="2" max="3" width="15" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="12.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="16.25" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15"/>
-    <row r="2" s="1" customFormat="1" spans="2:13">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="2:13">
-      <c r="B3" s="6" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
+    </row>
+    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="N3" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="2:13">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F4" s="7">
         <v>736</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="7">
         <v>966</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="N4" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" ht="28.5" spans="2:13">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="9">
+      <c r="F5" s="7">
         <v>1549</v>
       </c>
-      <c r="F5" s="9">
+      <c r="G5" s="7">
         <v>350</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="21"/>
-    </row>
-    <row r="6" ht="28.5" spans="2:13">
-      <c r="B6" s="11" t="s">
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="9">
+      <c r="F6" s="7">
         <v>1000</v>
       </c>
-      <c r="F6" s="9">
+      <c r="G6" s="7">
         <v>300</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J6" s="7">
         <v>40</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="7"/>
+      <c r="M6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="7" ht="28.5" spans="2:13">
-      <c r="B7" s="8" t="s">
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" s="48"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="7">
         <v>3480</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="7">
         <v>300</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="28.5" spans="2:13">
-      <c r="B8" s="13" t="s">
+      <c r="M7" s="7"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="2:14" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="12">
+        <v>740</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="14">
-        <v>740</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="J8" s="12">
+        <v>15</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="19"/>
+    </row>
+    <row r="9" spans="2:14" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="I8" s="14">
-        <v>15</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="22"/>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="28.5" spans="2:13">
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15" t="s">
+      <c r="F9" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="G9" s="12">
+        <v>563</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="19"/>
+    </row>
+    <row r="10" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="14">
-        <v>563</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="22"/>
-    </row>
-    <row r="10" ht="28.5" spans="2:13">
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="48"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10" t="s">
+      <c r="F10" s="7">
+        <v>5000</v>
+      </c>
+      <c r="G10" s="7">
+        <v>395</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="9">
-        <v>5000</v>
-      </c>
-      <c r="F10" s="9">
-        <v>395</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="I10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="J10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="2:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="7">
+        <v>409</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="21"/>
-    </row>
-    <row r="11" ht="28.5" spans="2:13">
-      <c r="B11" s="8" t="s">
+      <c r="C12" s="51"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="44">
+        <v>720</v>
+      </c>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="9">
-        <v>6000</v>
-      </c>
-      <c r="F11" s="9">
-        <v>409</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" ht="29.25" spans="2:13">
-      <c r="B12" s="16" t="s">
+      <c r="M12" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="17">
-        <v>720</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="M12" s="23"/>
+      <c r="N12" s="46"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="43"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="46"/>
+    </row>
+    <row r="14" spans="2:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="44"/>
+      <c r="K14" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="46"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="43"/>
+      <c r="C15" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="46"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="43"/>
+      <c r="C16" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="46"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="43"/>
+      <c r="C17" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="46"/>
+    </row>
+    <row r="18" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B2:N2"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId2" display="Orbbec Astra"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>134</v>
       </c>
-      <c r="C3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3">
-      <c r="C4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" t="s">
-        <v>137</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>